--- a/Curva do Hino.xlsx
+++ b/Curva do Hino.xlsx
@@ -1132,6 +1132,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Hino</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
